--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_19-17.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_19-17.xlsx
@@ -137,6 +137,9 @@
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
     <t>EUTHYROX 50MCG 50 TAB</t>
   </si>
   <si>
@@ -282,6 +285,9 @@
   </si>
   <si>
     <t>SUPOLACK HAIR SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
   </si>
   <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
@@ -1563,7 +1569,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1583,17 +1589,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>147.5</v>
+        <v>46</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1609,17 +1615,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>52</v>
+        <v>147.5</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1635,17 +1641,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1661,17 +1667,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1687,13 +1693,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>30.670000000000002</v>
+        <v>29</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1713,17 +1719,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>16</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1731,7 +1737,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1739,17 +1745,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1757,7 +1763,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1765,17 +1771,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1791,17 +1797,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1817,17 +1823,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1843,17 +1849,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1869,13 +1875,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1895,17 +1901,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1913,7 +1919,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1921,17 +1927,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1947,17 +1953,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1973,17 +1979,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1999,17 +2005,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2017,7 +2023,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2025,17 +2031,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2051,17 +2057,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2077,17 +2083,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2103,13 +2109,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2129,13 +2135,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2155,17 +2161,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2173,7 +2179,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2181,17 +2187,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2207,13 +2213,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2233,17 +2239,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2265,7 +2271,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2285,13 +2291,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2303,7 +2309,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2311,17 +2317,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2337,17 +2343,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2363,13 +2369,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2389,13 +2395,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2415,17 +2421,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2441,17 +2447,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2467,17 +2473,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>20.399999999999999</v>
+        <v>69</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2485,7 +2491,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2493,13 +2499,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>26</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2511,7 +2517,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2519,17 +2525,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2545,17 +2551,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2563,7 +2569,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2571,13 +2577,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>149.5</v>
+        <v>35</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2597,17 +2603,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>80</v>
+        <v>149.5</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2623,17 +2629,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>-17.09</v>
+        <v>39</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2649,17 +2655,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2675,17 +2681,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>19</v>
+        <v>-17.09</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2701,17 +2707,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2727,13 +2733,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2753,17 +2759,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2779,13 +2785,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2811,7 +2817,7 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2831,17 +2837,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2849,7 +2855,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2863,7 +2869,7 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2875,7 +2881,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2883,17 +2889,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>66.640000000000001</v>
+        <v>5</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2909,13 +2915,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2927,7 +2933,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2935,17 +2941,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>-375</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2953,7 +2959,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2961,13 +2967,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2987,17 +2993,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>14</v>
+        <v>-375</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3013,13 +3019,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3039,17 +3045,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>13.880000000000001</v>
+        <v>14</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3057,7 +3063,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3065,13 +3071,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3083,7 +3089,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3091,17 +3097,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>188.09999999999999</v>
+        <v>13.880000000000001</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3117,17 +3123,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3149,7 +3155,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>50</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3169,17 +3175,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3195,13 +3201,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3221,13 +3227,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3239,7 +3245,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3247,13 +3253,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3265,7 +3271,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3273,13 +3279,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3305,7 +3311,7 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3325,13 +3331,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3351,13 +3357,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3377,13 +3383,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3403,13 +3409,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3417,37 +3423,89 @@
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
-      <c r="K98" s="10">
-        <v>3886.6399999999999</v>
-      </c>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-    </row>
-    <row r="99" ht="17.25" customHeight="1">
-      <c t="s" r="A99" s="11">
+      <c r="A98" s="6">
+        <v>95</v>
+      </c>
+      <c t="s" r="B98" s="7">
+        <v>127</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c t="s" r="H98" s="8">
+        <v>77</v>
+      </c>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="9">
+        <v>25</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c t="s" r="N98" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" ht="24.75" customHeight="1">
+      <c r="A99" s="6">
+        <v>96</v>
+      </c>
+      <c t="s" r="B99" s="7">
         <v>128</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c t="s" r="F99" s="12">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c t="s" r="H99" s="8">
         <v>129</v>
       </c>
-      <c r="G99" s="12"/>
-      <c r="H99" s="13"/>
-      <c t="s" r="I99" s="14">
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="9">
+        <v>45</v>
+      </c>
+      <c r="M99" s="9"/>
+      <c t="s" r="N99" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" ht="26.25" customHeight="1">
+      <c r="K100" s="10">
+        <v>4003.6399999999999</v>
+      </c>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="11">
         <v>130</v>
       </c>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c t="s" r="F101" s="12">
+        <v>131</v>
+      </c>
+      <c r="G101" s="12"/>
+      <c r="H101" s="13"/>
+      <c t="s" r="I101" s="14">
+        <v>132</v>
+      </c>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="293">
+  <mergeCells count="299">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3737,10 +3795,16 @@
     <mergeCell ref="B97:G97"/>
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="I99:N99"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="I101:N101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
